--- a/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
+++ b/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\writingHelper\Home_WritingCat\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D08BA3-1289-46E8-922A-165963D6B9B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E4C6E-8B3F-46E6-B0ED-3804F146F6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489BDAD6-CB6B-4906-BCD2-586DEE0C84BC}"/>
   </bookViews>
@@ -34,19 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t> Collocation</t>
   </si>
   <si>
-    <t>Interception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +79,34 @@
   </si>
   <si>
     <t>It was too late to be sure whether he even knew she was there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interpretation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>late</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,69 +492,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C852DF-D2A1-435D-B58E-339D156780E5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
+++ b/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\writingHelper\Home_WritingCat\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E4C6E-8B3F-46E6-B0ED-3804F146F6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E15B25-6999-4E16-9E18-0F32E4B4301E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489BDAD6-CB6B-4906-BCD2-586DEE0C84BC}"/>
   </bookViews>
@@ -20,28 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t> Collocation</t>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
   <si>
     <t>zero-sum game</t>
   </si>
@@ -82,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interpretation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wordKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,7 +82,925 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解释</t>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop their skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升他们的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop good learning habits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broaden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成良好的学习习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展他们关于……的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost their brain development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进（儿童的）大脑发育，例如：阅读，玩益智游戏等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become more creative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变得更有创造力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expand their horizons</t>
+  </si>
+  <si>
+    <t>expand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阔他们的视野、开阔他们的眼界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve their social skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高他们的社会交往能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broaden their knowledge about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work closely with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与同学（或者同事、队友）紧密地合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work,closely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase their independence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（活动、经历等）增强他们的独立性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain practical experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得实践经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare for employment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为就业做好准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve their potential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分发挥出他们的潜力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save time and energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节省时间和精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increase their efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高他们的效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce distractions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少干扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make the best use of their time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make,use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更充分地利用他们的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost their performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make our lives more convenient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们的生活变得更方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make,convenient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost,performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find information quickly and easily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速、轻松地找到信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence people's opinions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（广告、新闻节目、报纸等）影响人们的看法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make,competitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make the country more competitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让国家变得更具有竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have more freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have,freedom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（在家远程上班的员工、独居的人）有更多的自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should be a personal choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should,choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该纯属个人的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people with more choices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（科技、网络购物等）为人们提供了更多的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can have more flexible schedules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（学生或者员工）可以有更灵活的时间安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can,schedules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have job security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have,security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（员工）拥有工作的稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are treated fairly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are,fairly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（学生们或者员工们）受到平等的对待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote gender equality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进性别平等，促进男女平等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violate their privacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵犯他们的隐私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach their children good behaviour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交给孩子良好的行为举止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give,advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give them advice and support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给他们建议和支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have,careers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have busy careers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有忙碌的事业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve good grades/get good grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve,grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（学生）取得好成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elderly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elderly people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年人（名词短语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet,needs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet student's needs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（学校）满足学生们的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide a broad and balanced curriculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供科目广泛、不偏科的课程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide,curriculum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become,useful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become useful members of society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(学生）成为能够创造有用社会价值的社会成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do,volunteer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do voluntary work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做义工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve,services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve public services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（政府）改进公共服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create jobs/create employment opportunities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造就业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce poverty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少困难现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce laws to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过立法来……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce,law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run campaigns to encourage people to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（政府）举办大型的系列宣传活动以鼓励人们去……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run,campaigns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compete fairly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（学生、运动员、求职者、企业）公平地竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provide reliable information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（广告、报纸等）提供可靠的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage the environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">create waste and pollution </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste,pollution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生垃圾废料和污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car,fumes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car fumes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车尾气（名词短语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rely too much on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过度地依赖于……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contribute to global warming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（汽车、飞机等）加剧全球变暖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put,perssure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put pressure on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对……（自然资源、医疗体系等）构成压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet,responsibilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meet/fulfill their environmental responsibilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人、公司、政府）履行对于环境的义务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overcrowded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>become overcrowded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（城市）变得过于拥挤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make…more attractive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让……（食品、城市、旅游景点等）更吸引人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildlife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildlife habitats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野生动植物的栖息地（名词短语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered animals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濒危动物（名词短语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物实验（名词短语，“从事”动物实验动词搭配do,perform或者conduct都地道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifestyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a healthy lifestyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持健康的生活方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause health problems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致健康问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a balanced diet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持均衡的饮食结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have,fast-paced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have fast-paced lifestyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（城市里的人们）过着快节奏的生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor sports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外运动（名词短语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promote healthy lifestyles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（政府、媒体、学校）推广健康的生活方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve healthcare services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>improve,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>healthcare</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善医疗服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population,ageing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population ageing/aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口老龄化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause stress and anxiety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syress,anxiety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致压力和焦虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stressful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a stressful lifestyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生活中承受着很大的压力，“亚历山大”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belonging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a strong sense of belonging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（员工、居民）有很强的归属感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop good spending habits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成良好的消费习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce crime rates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低犯罪率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect their heritage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护他们的文化传承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a virtual world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个虚拟的世界里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero-sum is a situation in game theory in which one person’s gain is equivalent to another’s loss.</t>
+  </si>
+  <si>
+    <t>提高它们的表现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> collocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +1008,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +1039,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +1078,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,86 +1397,1331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C852DF-D2A1-435D-B58E-339D156780E5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
+++ b/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\writingHelper\Home_WritingCat\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E15B25-6999-4E16-9E18-0F32E4B4301E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076410F-EB3C-4DE9-8418-A986CDC0CFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489BDAD6-CB6B-4906-BCD2-586DEE0C84BC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
   <si>
     <t>zero-sum game</t>
   </si>
@@ -1001,6 +1001,169 @@
   </si>
   <si>
     <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do businness with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…谈生意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do a chore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做家务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do the shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做志愿工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买买买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理他们的时间</t>
+  </si>
+  <si>
+    <t>毫无疑问的是…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以被相信的是…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活技能</t>
+  </si>
+  <si>
+    <t>make a cup of coffee</t>
+  </si>
+  <si>
+    <t>make a cup of tea</t>
+  </si>
+  <si>
+    <t>泡一杯茶</t>
+  </si>
+  <si>
+    <t>make noise</t>
+  </si>
+  <si>
+    <t>制造噪音</t>
+  </si>
+  <si>
+    <t>制作一杯咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make the bed</t>
+  </si>
+  <si>
+    <t>整理睡觉的床</t>
+  </si>
+  <si>
+    <t>make a business deal</t>
+  </si>
+  <si>
+    <t>做生意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a fuss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大惊小怪</t>
+  </si>
+  <si>
+    <t>make sense</t>
+  </si>
+  <si>
+    <t>使…有意义</t>
+  </si>
+  <si>
+    <t>Religion wants make sense of the world.</t>
+  </si>
+  <si>
+    <t>make sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好理解的</t>
+  </si>
+  <si>
+    <t>I feel like a lot of how you structure things make sense to me.</t>
+  </si>
+  <si>
+    <t>合情合理的</t>
+  </si>
+  <si>
+    <t>It seemed to make sense.</t>
+  </si>
+  <si>
+    <t>意味着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it make sense that we are special!</t>
+  </si>
+  <si>
+    <t>make time for</t>
+  </si>
+  <si>
+    <t>为...安排/腾出时间</t>
+  </si>
+  <si>
+    <t>manage their time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve their organization skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高他们的组织能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it is no surprise that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it is believed that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C852DF-D2A1-435D-B58E-339D156780E5}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2724,6 +2887,358 @@
         <v>232</v>
       </c>
     </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" t="s">
+        <v>285</v>
+      </c>
+      <c r="E83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" t="s">
+        <v>286</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E87" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91" t="s">
+        <v>271</v>
+      </c>
+      <c r="G91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93" t="s">
+        <v>275</v>
+      </c>
+      <c r="G93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>287</v>
+      </c>
+      <c r="D95" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>280</v>
+      </c>
+      <c r="E96" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
+++ b/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\writingHelper\Home_WritingCat\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076410F-EB3C-4DE9-8418-A986CDC0CFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFDC29-4B13-48C8-9158-BB1D86C5CC8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489BDAD6-CB6B-4906-BCD2-586DEE0C84BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="289">
   <si>
     <t>zero-sum game</t>
   </si>
@@ -1164,6 +1165,10 @@
   </si>
   <si>
     <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work's closely with</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C852DF-D2A1-435D-B58E-339D156780E5}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3244,4 +3249,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4859F9C6-9D37-4857-802C-84CC351AC29C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
+++ b/Home_WritingCat/repository/Structured Collocations Exeample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\writingHelper\Home_WritingCat\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFDC29-4B13-48C8-9158-BB1D86C5CC8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD71E48-0909-493C-A7B4-EB63503CCC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{489BDAD6-CB6B-4906-BCD2-586DEE0C84BC}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="291">
   <si>
     <t>zero-sum game</t>
   </si>
@@ -1055,18 +1055,9 @@
     <t>生活技能</t>
   </si>
   <si>
-    <t>make a cup of coffee</t>
-  </si>
-  <si>
-    <t>make a cup of tea</t>
-  </si>
-  <si>
     <t>泡一杯茶</t>
   </si>
   <si>
-    <t>make noise</t>
-  </si>
-  <si>
     <t>制造噪音</t>
   </si>
   <si>
@@ -1074,23 +1065,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>make the bed</t>
-  </si>
-  <si>
     <t>整理睡觉的床</t>
   </si>
   <si>
-    <t>make a business deal</t>
-  </si>
-  <si>
     <t>做生意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>make a fuss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大惊小怪</t>
   </si>
   <si>
@@ -1100,76 +1081,97 @@
     <t>使…有意义</t>
   </si>
   <si>
+    <t>好理解的</t>
+  </si>
+  <si>
+    <t>合情合理的</t>
+  </si>
+  <si>
+    <t>意味着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为...安排/腾出时间</t>
+  </si>
+  <si>
+    <t>improve their organization skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高他们的组织能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Religion wants make sense of the world.</t>
-  </si>
-  <si>
-    <t>make sense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好理解的</t>
-  </si>
-  <si>
-    <t>I feel like a lot of how you structure things make sense to me.</t>
-  </si>
-  <si>
-    <t>合情合理的</t>
-  </si>
-  <si>
-    <t>It seemed to make sense.</t>
-  </si>
-  <si>
-    <t>意味着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it make sense that we are special!</t>
-  </si>
-  <si>
-    <t>make time for</t>
-  </si>
-  <si>
-    <t>为...安排/腾出时间</t>
-  </si>
-  <si>
-    <t>manage their time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>improve their organization skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高他们的组织能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it is no surprise that</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it is believed that</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work's closely with</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Religion wants make sense of the world.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sense</t>
+  </si>
+  <si>
+    <t>I feel like a lot of how you structure things make sense to me.</t>
+  </si>
+  <si>
+    <t>It seemed to make sense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collocation</t>
+  </si>
+  <si>
+    <t>it is no surprise that</t>
+  </si>
+  <si>
+    <t>it is believed that</t>
+  </si>
+  <si>
+    <t>life skills</t>
+  </si>
+  <si>
+    <t>make a cup of coffee</t>
+  </si>
+  <si>
+    <t>make a cup of tea</t>
+  </si>
+  <si>
+    <t>make noise</t>
+  </si>
+  <si>
+    <t>make the bed</t>
+  </si>
+  <si>
+    <t>make a business deal</t>
+  </si>
+  <si>
+    <t>make a fuss</t>
+  </si>
+  <si>
+    <t>it make sense that we are special!</t>
+  </si>
+  <si>
+    <t>make time for</t>
+  </si>
+  <si>
+    <t>manage their time</t>
   </si>
 </sst>
 </file>
@@ -1567,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C852DF-D2A1-435D-B58E-339D156780E5}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1577,8 +1579,7 @@
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="59.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>235</v>
@@ -2968,10 +2969,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
         <v>252</v>
@@ -2985,10 +2986,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
         <v>253</v>
@@ -3005,7 +3006,7 @@
         <v>247</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
         <v>254</v>
@@ -3019,13 +3020,13 @@
         <v>247</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,13 +3037,13 @@
         <v>247</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,13 +3054,13 @@
         <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="E86" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3070,13 +3071,13 @@
         <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3087,13 +3088,13 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" t="s">
         <v>286</v>
       </c>
-      <c r="D88" t="s">
-        <v>263</v>
-      </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,13 +3105,13 @@
         <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,16 +3122,16 @@
         <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,16 +3142,16 @@
         <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G91" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3161,16 +3162,16 @@
         <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D92" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G92" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,16 +3182,16 @@
         <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E93" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G93" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3201,13 +3202,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3218,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="E95" t="s">
         <v>251</v>
@@ -3238,10 +3239,10 @@
         <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3256,12 +3257,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3294,17 +3296,20 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
+      <c r="B2" t="s">
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>262</v>
+      </c>
+      <c r="G2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
